--- a/violinmaster/doc/music_analyzer.xlsx
+++ b/violinmaster/doc/music_analyzer.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\github\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="372" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="22100" yWindow="2440" windowWidth="26280" windowHeight="18300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -342,7 +340,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,10 +428,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="141414"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F8F8F8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -468,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +501,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,7 +678,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,20 +688,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="63" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -732,7 +730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>44100</v>
       </c>
@@ -756,11 +754,11 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <f>0.023219955*VALUE( MID(D2,2,1))</f>
+        <f t="shared" ref="H2:H25" si="0">0.023219955*VALUE( MID(D2,2,1))</f>
         <v>2.3219955E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -778,11 +776,11 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f>0.023219955*VALUE( MID(D3,2,1))</f>
+        <f t="shared" si="0"/>
         <v>4.6439910000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -793,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E25" si="0">C4</f>
+        <f t="shared" ref="E4:E25" si="1">C4</f>
         <v>A</v>
       </c>
       <c r="F4" t="s">
@@ -803,11 +801,11 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <f>0.023219955*VALUE( MID(D4,2,1))</f>
+        <f t="shared" si="0"/>
         <v>6.9659865000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1024</v>
       </c>
@@ -818,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F5" t="s">
@@ -828,11 +826,11 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <f>0.023219955*VALUE( MID(D5,2,1))</f>
+        <f t="shared" si="0"/>
         <v>9.2879820000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -840,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>B</v>
       </c>
       <c r="F6" t="s">
@@ -850,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <f>0.023219955*VALUE( MID(D6,2,1))</f>
+        <f t="shared" si="0"/>
         <v>9.2879820000000002E-2</v>
       </c>
       <c r="I6">
@@ -858,7 +856,7 @@
         <v>2.3219955E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -869,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
       <c r="F7" t="s">
@@ -879,15 +877,15 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <f>0.023219955*VALUE( MID(D7,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.116099775</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I25" si="1">0.023219955*VALUE(MID(D7,4,1))</f>
+        <f t="shared" ref="I7:I25" si="2">0.023219955*VALUE(MID(D7,4,1))</f>
         <v>2.3219955E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <f>A5/A2</f>
         <v>2.3219954648526078E-2</v>
@@ -899,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F8" t="s">
@@ -909,15 +907,15 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <f>0.023219955*VALUE( MID(D8,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.13931973</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3219955E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -925,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F9" t="s">
@@ -935,15 +933,15 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <f>0.023219955*VALUE( MID(D9,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.16253968499999999</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3219955E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -951,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="F10" t="s">
@@ -961,15 +959,15 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <f>0.023219955*VALUE( MID(D10,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.16253968499999999</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3219955E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -977,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F11" t="s">
@@ -987,15 +985,15 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <f>0.023219955*VALUE( MID(D11,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.18575964</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3219955E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" t="s">
         <v>1</v>
       </c>
@@ -1003,7 +1001,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="F12" t="s">
@@ -1013,15 +1011,15 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <f>0.023219955*VALUE( MID(D12,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3219955E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -1032,7 +1030,7 @@
         <v>19</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>B</v>
       </c>
       <c r="F13" t="s">
@@ -1042,15 +1040,15 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <f>0.023219955*VALUE( MID(D13,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6439910000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1056,7 @@
         <v>20</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>B</v>
       </c>
       <c r="F14" t="s">
@@ -1068,15 +1066,15 @@
         <v>42</v>
       </c>
       <c r="H14">
-        <f>0.023219955*VALUE( MID(D14,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9659865000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>B</v>
       </c>
       <c r="F15" t="s">
@@ -1094,15 +1092,15 @@
         <v>2</v>
       </c>
       <c r="H15">
-        <f>0.023219955*VALUE( MID(D15,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.2879820000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -1110,7 +1108,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>B</v>
       </c>
       <c r="F16" t="s">
@@ -1120,15 +1118,15 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <f>0.023219955*VALUE( MID(D16,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.116099775</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1137,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
       <c r="F17" t="s">
@@ -1149,15 +1147,15 @@
         <v>2</v>
       </c>
       <c r="H17">
-        <f>0.023219955*VALUE( MID(D17,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.116099775</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -1165,7 +1163,7 @@
         <v>46</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
       <c r="F18" t="s">
@@ -1175,15 +1173,15 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <f>0.023219955*VALUE( MID(D18,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.116099775</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1189,7 @@
         <v>47</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
       <c r="F19" t="s">
@@ -1201,15 +1199,15 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <f>0.023219955*VALUE( MID(D19,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.116099775</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -1217,7 +1215,7 @@
         <v>48</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
       <c r="F20" t="s">
@@ -1227,15 +1225,15 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <f>0.023219955*VALUE( MID(D20,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.116099775</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +1244,7 @@
         <v>49</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="F21" t="s">
@@ -1256,15 +1254,15 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <f>0.023219955*VALUE( MID(D21,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.116099775</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -1272,7 +1270,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="F22" t="s">
@@ -1282,15 +1280,15 @@
         <v>3</v>
       </c>
       <c r="H22">
-        <f>0.023219955*VALUE( MID(D22,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.116099775</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -1298,7 +1296,7 @@
         <v>51</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="F23" t="s">
@@ -1308,15 +1306,15 @@
         <v>4</v>
       </c>
       <c r="H23">
-        <f>0.023219955*VALUE( MID(D23,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.116099775</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -1324,7 +1322,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="F24" t="s">
@@ -1334,15 +1332,15 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <f>0.023219955*VALUE( MID(D24,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.116099775</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1348,7 @@
         <v>53</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="F25" t="s">
@@ -1360,17 +1358,22 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <f>0.023219955*VALUE( MID(D25,2,1))</f>
+        <f t="shared" si="0"/>
         <v>0.20897959500000002</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.116099775</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>